--- a/GenericScenarioEvaluation/Reviewed Scenarios/ST/Coating application via spray painting.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/ST/Coating application via spray painting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/barrett_williamm_epa_gov/Documents/Repos/GenericScenarioEvaluation/GenericScenarioEvaluation/Reviewed Scenarios/ST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA2AD996-B4BC-4BB2-AD9D-F8EC4E0ABA0E}"/>
+  <xr:revisionPtr revIDLastSave="705" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B3EB65AC-412D-4F82-B4D1-D3DFEC26D496}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -695,10 +695,6 @@
   <si>
     <t>Dermal exposure to solid/liquid coating particulates (i.e.,
 overspray mist) during spray application</t>
-  </si>
-  <si>
-    <t>Loss rate is based on available industryspecific
-data</t>
   </si>
   <si>
     <t>Coating product container residue disposal</t>
@@ -1570,6 +1566,9 @@
   </si>
   <si>
     <t>Unloading/ mixing liquid coating product</t>
+  </si>
+  <si>
+    <t>Loss rate is based on available industry specific data</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A8DA8E-F055-4EAE-98B3-B13E29507A62}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2513,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -2541,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="22">
         <v>40725</v>
@@ -2712,7 +2711,7 @@
         <v>187</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -2734,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2784,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>201</v>
@@ -2833,7 +2832,7 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>204</v>
@@ -2845,12 +2844,12 @@
         <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>205</v>
@@ -2862,7 +2861,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2870,7 +2869,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>206</v>
@@ -2882,7 +2881,7 @@
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2916,7 +2915,7 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2933,7 +2932,7 @@
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2950,7 +2949,7 @@
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2967,7 +2966,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3082,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>165</v>
@@ -3095,43 +3094,43 @@
         <v>175</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>187</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>165</v>
@@ -3143,25 +3142,25 @@
         <v>175</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -3170,7 +3169,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>165</v>
@@ -3182,25 +3181,25 @@
         <v>175</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3210,7 +3209,7 @@
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>165</v>
@@ -3222,37 +3221,37 @@
         <v>175</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>165</v>
@@ -3264,25 +3263,25 @@
         <v>175</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -3292,7 +3291,7 @@
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>157</v>
@@ -3304,43 +3303,43 @@
         <v>175</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>187</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>157</v>
@@ -3352,23 +3351,23 @@
         <v>175</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -3378,7 +3377,7 @@
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>157</v>
@@ -3390,23 +3389,23 @@
         <v>175</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -3416,7 +3415,7 @@
     </row>
     <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>157</v>
@@ -3428,31 +3427,31 @@
         <v>175</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" s="7">
         <v>0.02</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7"/>
     </row>
@@ -3463,7 +3462,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="7"/>
@@ -3475,10 +3474,10 @@
     </row>
     <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>180</v>
@@ -3487,44 +3486,44 @@
         <v>175</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>187</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>180</v>
@@ -3533,23 +3532,23 @@
         <v>175</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -3559,10 +3558,10 @@
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>180</v>
@@ -3571,23 +3570,23 @@
         <v>175</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3597,10 +3596,10 @@
     </row>
     <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>180</v>
@@ -3609,23 +3608,23 @@
         <v>175</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -3635,10 +3634,10 @@
     </row>
     <row r="16" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>180</v>
@@ -3647,40 +3646,40 @@
         <v>175</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>180</v>
@@ -3689,46 +3688,46 @@
         <v>175</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>187</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>180</v>
@@ -3737,23 +3736,23 @@
         <v>175</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -3763,10 +3762,10 @@
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>180</v>
@@ -3775,25 +3774,25 @@
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -3803,10 +3802,10 @@
     </row>
     <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>180</v>
@@ -3815,40 +3814,40 @@
         <v>175</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>180</v>
@@ -3857,38 +3856,38 @@
         <v>175</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="9"/>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>180</v>
@@ -3897,23 +3896,23 @@
         <v>175</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -3922,10 +3921,10 @@
     </row>
     <row r="23" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>180</v>
@@ -3934,30 +3933,30 @@
         <v>175</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
         <v>178</v>
@@ -3966,33 +3965,33 @@
         <v>175</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
         <v>178</v>
@@ -4001,30 +4000,30 @@
         <v>175</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
         <v>178</v>
@@ -4033,30 +4032,30 @@
         <v>175</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
         <v>178</v>
@@ -4065,35 +4064,35 @@
         <v>175</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C29" t="s">
         <v>172</v>
@@ -4102,25 +4101,25 @@
         <v>175</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N29" t="s">
         <v>187</v>
@@ -4128,10 +4127,10 @@
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -4140,33 +4139,33 @@
         <v>175</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
         <v>283</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O30" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>172</v>
@@ -4175,33 +4174,33 @@
         <v>175</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
         <v>172</v>
@@ -4210,30 +4209,30 @@
         <v>175</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
         <v>172</v>
@@ -4242,27 +4241,27 @@
         <v>175</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="K33" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
         <v>172</v>
@@ -4271,25 +4270,25 @@
         <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N34" t="s">
         <v>187</v>
@@ -4297,10 +4296,10 @@
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
         <v>172</v>
@@ -4309,33 +4308,33 @@
         <v>175</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
         <v>172</v>
@@ -4344,33 +4343,33 @@
         <v>175</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
         <v>172</v>
@@ -4379,33 +4378,33 @@
         <v>175</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I37" t="s">
-        <v>346</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="K37" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
         <v>172</v>
@@ -4414,27 +4413,27 @@
         <v>175</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C39" t="s">
         <v>172</v>
@@ -4443,25 +4442,25 @@
         <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="K39" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s">
         <v>187</v>
@@ -4469,10 +4468,10 @@
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
@@ -4481,33 +4480,33 @@
         <v>175</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I40" t="s">
-        <v>307</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="K40" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C41" t="s">
         <v>172</v>
@@ -4516,33 +4515,33 @@
         <v>175</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="K41" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C42" t="s">
         <v>172</v>
@@ -4551,33 +4550,33 @@
         <v>175</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C43" t="s">
         <v>172</v>
@@ -4586,33 +4585,33 @@
         <v>175</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I43">
         <v>0.25</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O43" t="s">
         <v>312</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O43" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
         <v>172</v>
@@ -4621,25 +4620,25 @@
         <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N44" t="s">
         <v>187</v>
@@ -4647,10 +4646,10 @@
     </row>
     <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
@@ -4659,33 +4658,33 @@
         <v>175</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
         <v>172</v>
@@ -4694,33 +4693,33 @@
         <v>175</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I46" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
         <v>172</v>
@@ -4729,33 +4728,33 @@
         <v>175</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" t="s">
         <v>316</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="K47" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
         <v>172</v>
@@ -4764,27 +4763,27 @@
         <v>175</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="K48" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
@@ -4793,25 +4792,25 @@
         <v>175</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N49" t="s">
         <v>187</v>
@@ -4819,10 +4818,10 @@
     </row>
     <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -4831,30 +4830,30 @@
         <v>175</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I50" t="s">
+        <v>323</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I50" t="s">
-        <v>324</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="K50" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
         <v>47</v>
@@ -4863,27 +4862,27 @@
         <v>175</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="K51" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
         <v>47</v>
@@ -4892,33 +4891,33 @@
         <v>175</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I52">
         <v>1.25</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O52" t="s">
         <v>328</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O52" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -4927,30 +4926,30 @@
         <v>175</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I53" t="s">
         <v>330</v>
       </c>
-      <c r="I53" t="s">
-        <v>331</v>
-      </c>
       <c r="J53" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C54" t="s">
         <v>172</v>
@@ -4959,25 +4958,25 @@
         <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="K54" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N54" t="s">
         <v>187</v>
@@ -4985,10 +4984,10 @@
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C55" t="s">
         <v>172</v>
@@ -4997,33 +4996,33 @@
         <v>175</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" t="s">
         <v>334</v>
       </c>
-      <c r="I55" t="s">
-        <v>335</v>
-      </c>
       <c r="J55" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C56" t="s">
         <v>172</v>
@@ -5032,33 +5031,33 @@
         <v>175</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C57" t="s">
         <v>172</v>
@@ -5067,33 +5066,33 @@
         <v>175</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C58" t="s">
         <v>172</v>
@@ -5102,33 +5101,33 @@
         <v>175</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I58" s="20">
         <v>18720</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C59" t="s">
         <v>172</v>
@@ -5137,27 +5136,27 @@
         <v>175</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C60" t="s">
         <v>172</v>
@@ -5166,29 +5165,29 @@
         <v>175</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="K60" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5794,6 +5793,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F11D2A2FBBEED40A750386529AFE883" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7fcd2fa88e0328b3b0dd9ef335fe48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="241d41d8-5778-4e30-b44e-dee891c66b79" xmlns:ns6="af43f131-d884-42a1-ba66-3c1404ec48fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a2a87f8101accce6a0d0ea40fd00900" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6226,60 +6278,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0601DE6-5E31-4BF7-9E5D-A3909FE28A24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6300,41 +6336,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>